--- a/data/Calendario_Nevian-Cup-X.xlsx
+++ b/data/Calendario_Nevian-Cup-X.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Calendario Nevian Cup X</t>
   </si>
@@ -203,43 +203,55 @@
     <t>14ª Giornata serie a</t>
   </si>
   <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>13ª Giornata lega</t>
+  </si>
+  <si>
+    <t>15ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>14ª Giornata lega</t>
+  </si>
+  <si>
+    <t>16ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>15ª Giornata lega</t>
+  </si>
+  <si>
+    <t>17ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>16ª Giornata lega</t>
+  </si>
+  <si>
+    <t>18ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>17ª Giornata lega</t>
+  </si>
+  <si>
+    <t>19ª Giornata serie a</t>
+  </si>
+  <si>
+    <t>18ª Giornata lega</t>
+  </si>
+  <si>
+    <t>20ª Giornata serie a</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>13ª Giornata lega</t>
-  </si>
-  <si>
-    <t>15ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>14ª Giornata lega</t>
-  </si>
-  <si>
-    <t>16ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>15ª Giornata lega</t>
-  </si>
-  <si>
-    <t>17ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>16ª Giornata lega</t>
-  </si>
-  <si>
-    <t>18ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>17ª Giornata lega</t>
-  </si>
-  <si>
-    <t>19ª Giornata serie a</t>
-  </si>
-  <si>
-    <t>18ª Giornata lega</t>
-  </si>
-  <si>
-    <t>20ª Giornata serie a</t>
   </si>
   <si>
     <t>19ª Giornata lega</t>
@@ -1429,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -1444,16 +1456,16 @@
         <v>23</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I35" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -1461,31 +1473,31 @@
         <v>14</v>
       </c>
       <c r="B36" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="6">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="I36" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1493,31 +1505,31 @@
         <v>19</v>
       </c>
       <c r="B37" s="6">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="C37" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I37" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1525,31 +1537,31 @@
         <v>16</v>
       </c>
       <c r="B38" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="C38" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -1557,49 +1569,49 @@
         <v>11</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="6">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="I39" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="G40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
@@ -1609,31 +1621,31 @@
         <v>7</v>
       </c>
       <c r="B41" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="6">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I41" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1641,31 +1653,31 @@
         <v>11</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="I42" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -1673,31 +1685,31 @@
         <v>6</v>
       </c>
       <c r="B43" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C43" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -1705,31 +1717,31 @@
         <v>14</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="I44" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1737,49 +1749,49 @@
         <v>16</v>
       </c>
       <c r="B45" s="6">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="G46" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="4"/>
@@ -1789,31 +1801,31 @@
         <v>16</v>
       </c>
       <c r="B47" s="6">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="6">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="I47" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -1821,31 +1833,31 @@
         <v>7</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I48" s="6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1853,31 +1865,31 @@
         <v>11</v>
       </c>
       <c r="B49" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="6">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I49" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1885,31 +1897,31 @@
         <v>9</v>
       </c>
       <c r="B50" s="6">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I50" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -1917,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="6">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>14</v>
@@ -1932,34 +1944,34 @@
         <v>17</v>
       </c>
       <c r="H51" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="I51" s="6">
-        <v>0</v>
+        <v>71.5</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="G52" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="4"/>
@@ -1969,16 +1981,16 @@
         <v>17</v>
       </c>
       <c r="B53" s="6">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>14</v>
@@ -1993,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -2001,16 +2013,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="6">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>6</v>
@@ -2025,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -2033,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
@@ -2057,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -2065,16 +2077,16 @@
         <v>23</v>
       </c>
       <c r="B56" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
@@ -2089,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -2097,16 +2109,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C57" s="6">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>19</v>
@@ -2121,25 +2133,25 @@
         <v>23</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="4"/>
@@ -2158,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>9</v>
@@ -2173,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -2190,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>13</v>
@@ -2205,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -2222,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>17</v>
@@ -2237,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -2254,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>7</v>
@@ -2269,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
@@ -2286,7 +2298,7 @@
         <v>23</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>23</v>
@@ -2301,25 +2313,25 @@
         <v>11</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -2338,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>9</v>
@@ -2353,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -2370,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>19</v>
@@ -2385,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -2402,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>13</v>
@@ -2417,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -2434,7 +2446,7 @@
         <v>17</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>17</v>
@@ -2449,7 +2461,7 @@
         <v>14</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
@@ -2466,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>23</v>
@@ -2481,25 +2493,25 @@
         <v>16</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="4"/>
@@ -2518,7 +2530,7 @@
         <v>19</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>19</v>
@@ -2533,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -2550,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>13</v>
@@ -2565,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
@@ -2582,7 +2594,7 @@
         <v>17</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>17</v>
@@ -2597,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -2614,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>23</v>
@@ -2629,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
@@ -2646,7 +2658,7 @@
         <v>23</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
@@ -2661,25 +2673,25 @@
         <v>6</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
       <c r="G76" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="4"/>
@@ -2698,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>6</v>
@@ -2713,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
@@ -2730,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>11</v>
@@ -2745,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
@@ -2762,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>19</v>
@@ -2777,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
@@ -2794,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>13</v>
@@ -2809,7 +2821,7 @@
         <v>23</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -2826,7 +2838,7 @@
         <v>17</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>14</v>
@@ -2841,25 +2853,25 @@
         <v>7</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="G82" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="4"/>
@@ -2878,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>7</v>
@@ -2893,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
@@ -2910,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>9</v>
@@ -2925,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -2942,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>17</v>
@@ -2957,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -2974,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>13</v>
@@ -2989,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
@@ -3006,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>23</v>
@@ -3021,25 +3033,25 @@
         <v>14</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="4"/>
@@ -3058,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>23</v>
@@ -3073,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
@@ -3090,7 +3102,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>13</v>
@@ -3105,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -3122,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>9</v>
@@ -3137,7 +3149,7 @@
         <v>16</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -3154,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>17</v>
@@ -3169,7 +3181,7 @@
         <v>7</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
@@ -3186,7 +3198,7 @@
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>19</v>
@@ -3201,25 +3213,25 @@
         <v>14</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="4"/>
@@ -3238,7 +3250,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>19</v>
@@ -3253,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96">
@@ -3270,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>14</v>
@@ -3285,7 +3297,7 @@
         <v>11</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97">
@@ -3302,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>17</v>
@@ -3317,7 +3329,7 @@
         <v>9</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
@@ -3334,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>13</v>
@@ -3349,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
@@ -3366,7 +3378,7 @@
         <v>23</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>23</v>
@@ -3381,25 +3393,25 @@
         <v>7</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="4"/>
@@ -3418,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>11</v>
@@ -3433,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102">
@@ -3450,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>13</v>
@@ -3465,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
@@ -3482,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>14</v>
@@ -3497,7 +3509,7 @@
         <v>16</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
@@ -3514,7 +3526,7 @@
         <v>23</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>19</v>
@@ -3529,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
@@ -3546,7 +3558,7 @@
         <v>14</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>17</v>
@@ -3561,25 +3573,25 @@
         <v>23</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="G106" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="4"/>
@@ -3598,7 +3610,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>14</v>
@@ -3613,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108">
@@ -3630,7 +3642,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>6</v>
@@ -3645,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109">
@@ -3662,7 +3674,7 @@
         <v>19</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>13</v>
@@ -3677,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
@@ -3694,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>11</v>
@@ -3709,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111">
@@ -3726,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>19</v>
@@ -3741,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
